--- a/biology/Zoologie/Amaurobius/Amaurobius.xlsx
+++ b/biology/Zoologie/Amaurobius/Amaurobius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amaurobius est un genre d'araignées aranéomorphes de la famille des Amaurobiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amaurobius est un genre d'araignées aranéomorphes de la famille des Amaurobiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en écozone holarctique sauf Amaurobius tristis d'Érythrée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en écozone holarctique sauf Amaurobius tristis d'Érythrée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 01/04/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 01/04/2024) :
 Amaurobius agastus (Chamberlin, 1947)
 Amaurobius annulatus (Kulczyński, 1906)
 Amaurobius antipovae Marusik &amp; Kovblyuk, 2004
@@ -640,10 +656,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par C. L. Koch en 1837.
-Walmus[2] a été placé en synonymie par Leech en 1972[3].
+Walmus a été placé en synonymie par Leech en 1972.
 </t>
         </is>
       </c>
@@ -672,7 +690,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C. L. Koch, 1837 : Übersicht des Arachnidensystems. Nürnberg, Heft 1, p. 1-39.</t>
         </is>
